--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H2">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N2">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q2">
-        <v>16.12322073023295</v>
+        <v>34.37584456447167</v>
       </c>
       <c r="R2">
-        <v>16.12322073023295</v>
+        <v>309.382601080245</v>
       </c>
       <c r="S2">
-        <v>0.06292775934102489</v>
+        <v>0.1015423234411315</v>
       </c>
       <c r="T2">
-        <v>0.06292775934102489</v>
+        <v>0.1015423234411316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H3">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N3">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q3">
-        <v>0.5103970995598606</v>
+        <v>1.084916441880333</v>
       </c>
       <c r="R3">
-        <v>0.5103970995598606</v>
+        <v>9.764247976923</v>
       </c>
       <c r="S3">
-        <v>0.001992042805023111</v>
+        <v>0.003204719408170489</v>
       </c>
       <c r="T3">
-        <v>0.001992042805023111</v>
+        <v>0.00320471940817049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H4">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N4">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q4">
-        <v>0.4309455686320182</v>
+        <v>0.9005228469905557</v>
       </c>
       <c r="R4">
-        <v>0.4309455686320182</v>
+        <v>8.104705622915001</v>
       </c>
       <c r="S4">
-        <v>0.001681949251064117</v>
+        <v>0.002660041763446605</v>
       </c>
       <c r="T4">
-        <v>0.001681949251064117</v>
+        <v>0.002660041763446606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H5">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I5">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J5">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N5">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q5">
-        <v>6.330588560054213</v>
+        <v>13.49341976370911</v>
       </c>
       <c r="R5">
-        <v>6.330588560054213</v>
+        <v>121.440777873382</v>
       </c>
       <c r="S5">
-        <v>0.02470782730445079</v>
+        <v>0.03985802272883198</v>
       </c>
       <c r="T5">
-        <v>0.02470782730445079</v>
+        <v>0.03985802272883199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N6">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q6">
-        <v>127.1291185122091</v>
+        <v>150.0732358656767</v>
       </c>
       <c r="R6">
-        <v>127.1291185122091</v>
+        <v>1350.65912279109</v>
       </c>
       <c r="S6">
-        <v>0.496175715064923</v>
+        <v>0.4432992192395309</v>
       </c>
       <c r="T6">
-        <v>0.496175715064923</v>
+        <v>0.4432992192395309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N7">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q7">
-        <v>4.02440271977197</v>
+        <v>4.736375880787333</v>
       </c>
       <c r="R7">
-        <v>4.02440271977197</v>
+        <v>42.627382927086</v>
       </c>
       <c r="S7">
-        <v>0.0157069514880677</v>
+        <v>0.01399071405281918</v>
       </c>
       <c r="T7">
-        <v>0.0157069514880677</v>
+        <v>0.01399071405281918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J8">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N8">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q8">
-        <v>3.397939604225689</v>
+        <v>3.931376212892222</v>
       </c>
       <c r="R8">
-        <v>3.397939604225689</v>
+        <v>35.38238591603</v>
       </c>
       <c r="S8">
-        <v>0.01326191145352893</v>
+        <v>0.01161283686367542</v>
       </c>
       <c r="T8">
-        <v>0.01326191145352893</v>
+        <v>0.01161283686367542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J9">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N9">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q9">
-        <v>49.91571825311971</v>
+        <v>58.90767754188045</v>
       </c>
       <c r="R9">
-        <v>49.91571825311971</v>
+        <v>530.169097876924</v>
       </c>
       <c r="S9">
-        <v>0.1948174225312697</v>
+        <v>0.1740065596033578</v>
       </c>
       <c r="T9">
-        <v>0.1948174225312697</v>
+        <v>0.1740065596033579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H10">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N10">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q10">
-        <v>15.71493501962564</v>
+        <v>24.53860370014667</v>
       </c>
       <c r="R10">
-        <v>15.71493501962564</v>
+        <v>220.84743330132</v>
       </c>
       <c r="S10">
-        <v>0.06133424986984959</v>
+        <v>0.07248423610482821</v>
       </c>
       <c r="T10">
-        <v>0.06133424986984959</v>
+        <v>0.07248423610482822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H11">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I11">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J11">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N11">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q11">
-        <v>0.4974723963648622</v>
+        <v>0.7744488885253333</v>
       </c>
       <c r="R11">
-        <v>0.4974723963648622</v>
+        <v>6.970039996728</v>
       </c>
       <c r="S11">
-        <v>0.001941598627286094</v>
+        <v>0.002287633671945911</v>
       </c>
       <c r="T11">
-        <v>0.001941598627286094</v>
+        <v>0.002287633671945912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H12">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I12">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J12">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N12">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q12">
-        <v>0.4200328037033543</v>
+        <v>0.6428227013822223</v>
       </c>
       <c r="R12">
-        <v>0.4200328037033543</v>
+        <v>5.785404312440001</v>
       </c>
       <c r="S12">
-        <v>0.001639357522236113</v>
+        <v>0.001898824930297643</v>
       </c>
       <c r="T12">
-        <v>0.001639357522236113</v>
+        <v>0.001898824930297643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H13">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I13">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J13">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N13">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O13">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P13">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q13">
-        <v>6.170280089925932</v>
+        <v>9.632044952972445</v>
       </c>
       <c r="R13">
-        <v>6.170280089925932</v>
+        <v>86.68840457675201</v>
       </c>
       <c r="S13">
-        <v>0.02408215499013183</v>
+        <v>0.02845196202175923</v>
       </c>
       <c r="T13">
-        <v>0.02408215499013183</v>
+        <v>0.02845196202175924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H14">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I14">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J14">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N14">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O14">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P14">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q14">
-        <v>17.61026513202194</v>
+        <v>24.44062203823334</v>
       </c>
       <c r="R14">
-        <v>17.61026513202194</v>
+        <v>219.9655983441</v>
       </c>
       <c r="S14">
-        <v>0.06873158562430147</v>
+        <v>0.07219480945273117</v>
       </c>
       <c r="T14">
-        <v>0.06873158562430147</v>
+        <v>0.07219480945273118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H15">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I15">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J15">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N15">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O15">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P15">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q15">
-        <v>0.5574710162598066</v>
+        <v>0.7713565451266666</v>
       </c>
       <c r="R15">
-        <v>0.5574710162598066</v>
+        <v>6.94220890614</v>
       </c>
       <c r="S15">
-        <v>0.002175768882516988</v>
+        <v>0.00227849924230333</v>
       </c>
       <c r="T15">
-        <v>0.002175768882516988</v>
+        <v>0.002278499242303331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H16">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I16">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J16">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N16">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O16">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P16">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q16">
-        <v>0.4706916718475113</v>
+        <v>0.6402559360777779</v>
       </c>
       <c r="R16">
-        <v>0.4706916718475113</v>
+        <v>5.762303424700001</v>
       </c>
       <c r="S16">
-        <v>0.001837075404810692</v>
+        <v>0.001891242998390412</v>
       </c>
       <c r="T16">
-        <v>0.001837075404810692</v>
+        <v>0.001891242998390412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H17">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I17">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J17">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N17">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O17">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P17">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q17">
-        <v>6.914458646296096</v>
+        <v>9.593584583195556</v>
       </c>
       <c r="R17">
-        <v>6.914458646296096</v>
+        <v>86.34226124876</v>
       </c>
       <c r="S17">
-        <v>0.02698662983951488</v>
+        <v>0.02833835447678021</v>
       </c>
       <c r="T17">
-        <v>0.02698662983951488</v>
+        <v>0.02833835447678021</v>
       </c>
     </row>
   </sheetData>
